--- a/medicine/Premiers secours et secourisme/Point_de_compression/Point_de_compression.xlsx
+++ b/medicine/Premiers secours et secourisme/Point_de_compression/Point_de_compression.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les points de compression sont des techniques d'arrêt des hémorragies (saignements abondants) à distance. Ils consistent à comprimer l'artère amenant le sang à la blessure ou la zone atteinte, contre un os, arrêtant ainsi le flux sanguin et donc (théoriquement) le saignement. L'utilisation de ces techniques n'est plus enseignée[1] : en effet, la compression d'une artère principale prend le risque de priver d'apport sanguin toute la partie en aval de la zone comprimée, et pas seulement le vaisseau qui saigne, pouvant créer une paralysie du membre (par écrasement du nerf[2]), une nécrose (par privation d'apport sanguin) ou de fortes douleurs (par surpression sanguine), de la même façon qu'un garrot artériel. De plus, leur efficacité est remise en question par une étude[3], qui montre que l'arrêt du flux sanguin n'est pas durable malgré une pression constante (environ 20 secondes d'efficacité seulement), ce qui n'en fait qu'un moyen d'attente avant l'utilisation d'une technique plus durable ; il nécessite de surcroit un apprentissage pour le réaliser correctement[4].  
-Ils ont de fait été quasiment abandonnés au profit d'autres techniques, telles que la compression manuelle directe[5], le pansement compressif ou hémostatique, le garrot, etc. Par ailleurs, ces techniques ne sont pas des fins en soi, elle s'intègrent dans une démarche de premiers secours : ce n'est pas le geste seul qui va sauver, mais toute la démarche de secours :  la protection, le bilan, la réalisation de geste de premiers secours et l'alerte[6].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les points de compression sont des techniques d'arrêt des hémorragies (saignements abondants) à distance. Ils consistent à comprimer l'artère amenant le sang à la blessure ou la zone atteinte, contre un os, arrêtant ainsi le flux sanguin et donc (théoriquement) le saignement. L'utilisation de ces techniques n'est plus enseignée : en effet, la compression d'une artère principale prend le risque de priver d'apport sanguin toute la partie en aval de la zone comprimée, et pas seulement le vaisseau qui saigne, pouvant créer une paralysie du membre (par écrasement du nerf), une nécrose (par privation d'apport sanguin) ou de fortes douleurs (par surpression sanguine), de la même façon qu'un garrot artériel. De plus, leur efficacité est remise en question par une étude, qui montre que l'arrêt du flux sanguin n'est pas durable malgré une pression constante (environ 20 secondes d'efficacité seulement), ce qui n'en fait qu'un moyen d'attente avant l'utilisation d'une technique plus durable ; il nécessite de surcroit un apprentissage pour le réaliser correctement.  
+Ils ont de fait été quasiment abandonnés au profit d'autres techniques, telles que la compression manuelle directe, le pansement compressif ou hémostatique, le garrot, etc. Par ailleurs, ces techniques ne sont pas des fins en soi, elle s'intègrent dans une démarche de premiers secours : ce n'est pas le geste seul qui va sauver, mais toute la démarche de secours :  la protection, le bilan, la réalisation de geste de premiers secours et l'alerte.
 </t>
         </is>
       </c>
@@ -514,17 +526,20 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">En France
-En France, les points de compression ne sont plus enseignés en secourisme depuis 2007 (réforme instituant le PSC1 à la place de l'AFPS, et le PSE1/2 à la place de l'AFCPSAM et du CFAPSE[7]). Les points de compression décrits plus bas étaient enseignés lors des anciennes formations de secourisme, notamment le brevet national de secourisme (BNS), l'AFPS et le CFAPSE. Ils étaient recommandés lorsque l'appui manuel direct est impossible ou inefficace, par exemple :
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, les points de compression ne sont plus enseignés en secourisme depuis 2007 (réforme instituant le PSC1 à la place de l'AFPS, et le PSE1/2 à la place de l'AFCPSAM et du CFAPSE). Les points de compression décrits plus bas étaient enseignés lors des anciennes formations de secourisme, notamment le brevet national de secourisme (BNS), l'AFPS et le CFAPSE. Ils étaient recommandés lorsque l'appui manuel direct est impossible ou inefficace, par exemple :
 la blessure est trop grande pour être couverte par la main ;
 la blessure comporte un corps étranger, qu'on n'enlèvera sous aucun prétexte (on peut également appuyer avec une main en amont et une main en aval du saignement, à proximité du corps étranger, ce qui est moins problématique) ;
 on voit l'os brisé sortir de la blessure (fracture ouverte) ;
 la partie qui saigne est inaccessible (par exemple coincée sous un objet lourd) ;
 le sauveteur ne peut pas appuyer ni avec sa main gauche, ni avec sa main droite car il a une plaie ouverte à chaque main et ne peut pas se protéger (il n'a pas de sac plastique, pas de gant).
 S'il n'était pas possible de maintenir le point de compression (par exemple si le sauveteur devait de libérer pour prévenir les secours ou s'occuper d'autres victimes) il devait alors poser un garrot pour relayer la compression. Les cours enseignaient donc à poser un garrot d'une seule main tout en maintenant le point de compression.
-En France, alors que ce geste avait été retiré des référentiels grands publics, une personne qui intervient sur une hémorragie et ne peux pas faire de compression manuelle directe peut à nouveau réaliser un garrot[5]. Cette technique a été réenseignée au grand public à la suite des attentats du 13 novembre 2015, afin de fournir une réponse adaptée à une situation à nombreuses victimes.
-Aux États-Unis
-En 1971, les points de compression étaient enseignés aux intervenants paramédicaux extrahospitaliers et figuraient dans le guide des soins d'urgence publiés par l'Académie des chirurgiens orthopédiques[8] et ils étaient encore enseignés en 1976[9]. Ils ne figurent pas dans les recommandations de 2010 de l'association américaine de cardiologie et de la Croix-Rouge américaine car d'autres méthodes sont plus efficaces[10]. Ils figurent toutefois sur certains sites à destination des infirmiers[11] ainsi que dans les manuels d'instruction militaires pour les Hospital Corpsmen[12].
+En France, alors que ce geste avait été retiré des référentiels grands publics, une personne qui intervient sur une hémorragie et ne peux pas faire de compression manuelle directe peut à nouveau réaliser un garrot. Cette technique a été réenseignée au grand public à la suite des attentats du 13 novembre 2015, afin de fournir une réponse adaptée à une situation à nombreuses victimes.
 </t>
         </is>
       </c>
@@ -550,13 +565,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Hémorragie au cou</t>
+          <t>Indications et formation par pays</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le seul geste efficace face à une hémorragie au cou est le point de compression carotidien, à la base du cou. Il consistait à pincer l'artère carotide contre la colonne vertébrale. Pour cela, on se place du côté de la blessure, pour glisser la main sous la nuque, le pouce contre l'épaule ; puis on vient chercher le creux du cou, pour appuyer avec le pouce en direction de la colonne vertébrale.
-Vous pouvez vous entraîner à trouver le creux du cou sur vous-même. Pour cela, mettez vos doigts sur le devant du cou (sous le menton), au milieu ; vous sentez sous vos doigt le « tuyau » qui amène l'air aux poumons, (le larynx, la pomme d'Adam, et en bas la trachée). Faites glisser vos doigts sur le côté, vous allez sentir un creux, entre le larynx et le muscle du cou, c'est à cet endroit qu'il faut appuyer.
+          <t>Aux États-Unis</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1971, les points de compression étaient enseignés aux intervenants paramédicaux extrahospitaliers et figuraient dans le guide des soins d'urgence publiés par l'Académie des chirurgiens orthopédiques et ils étaient encore enseignés en 1976. Ils ne figurent pas dans les recommandations de 2010 de l'association américaine de cardiologie et de la Croix-Rouge américaine car d'autres méthodes sont plus efficaces. Ils figurent toutefois sur certains sites à destination des infirmiers ainsi que dans les manuels d'instruction militaires pour les Hospital Corpsmen.
 </t>
         </is>
       </c>
@@ -582,10 +602,46 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Hémorragie au cou</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le seul geste efficace face à une hémorragie au cou est le point de compression carotidien, à la base du cou. Il consistait à pincer l'artère carotide contre la colonne vertébrale. Pour cela, on se place du côté de la blessure, pour glisser la main sous la nuque, le pouce contre l'épaule ; puis on vient chercher le creux du cou, pour appuyer avec le pouce en direction de la colonne vertébrale.
+Vous pouvez vous entraîner à trouver le creux du cou sur vous-même. Pour cela, mettez vos doigts sur le devant du cou (sous le menton), au milieu ; vous sentez sous vos doigt le « tuyau » qui amène l'air aux poumons, (le larynx, la pomme d'Adam, et en bas la trachée). Faites glisser vos doigts sur le côté, vous allez sentir un creux, entre le larynx et le muscle du cou, c'est à cet endroit qu'il faut appuyer.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Point_de_compression</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Point_de_compression</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Hémorragie au membre supérieur</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Lorsque la blessure se situe sur le membre supérieur (bras, avant-bras, main), il existe trois points de compression pour arrêter le saignement à distance.
 Le premier est le point de compression huméral, il consiste à appuyer sur la face interne du bras (entre la blessure et l'épaule, au-dessus du coude). On comprime l'artère humérale contre l'humérus (os du bras) avec le pouce ; pour cela, on place la main sous le bras de la victime (victime allongée) paume vers le haut, on met le pouce entre les muscles du dessus (biceps) et du dessous (triceps) du bras, et on tourne la main pour appuyer le pouce.
@@ -606,31 +662,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Point_de_compression</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Premiers secours et secourisme/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Point_de_compression</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Hémorragie au membre inférieur</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Lorsque la blessure se situe sur le membre inférieur (cuisse, jambe, pied), on dispose de deux points de compression.
 Le premier est le point de compression fémoral, dans le pli de l'aine. On comprime l'artère fémorale contre le fémur (os de la cuisse) ou le bassin, en appuyant le poing fermé, bras tendu, au milieu du pli de l'aine (pli de flexion de la cuisse).
@@ -640,33 +698,35 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Point_de_compression</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Premiers secours et secourisme/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Point_de_compression</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Évolution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2016, l'entreprise North American Rescue a créé un dispositif, le JETT (anglais : junctional emergency treatment tool)[13],[14] permettant d'effectuer un point de compression fémoral. L'objectif est de pouvoir stopper une hémorragie lorsque la blessure est située sur la cuisse, mais plus haut que le plancher pelvien ; il n'est alors pas possible de poser un garrot. L'efficacité de ce dispositif a été évaluée sur un cadavre perfusé et montre qu'il arrête efficacement la circulation dans le membre inférieur sans perturber la circulation aortique[15]. La mise en œuvre a également été évaluée sur des personnes saines, sur la base de l'absence de pouls pédieux, et le dispositif est jugé plus simple et plus rapide à mettre en œuvre qu'un garrot tactique standard[16].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2016, l'entreprise North American Rescue a créé un dispositif, le JETT (anglais : junctional emergency treatment tool), permettant d'effectuer un point de compression fémoral. L'objectif est de pouvoir stopper une hémorragie lorsque la blessure est située sur la cuisse, mais plus haut que le plancher pelvien ; il n'est alors pas possible de poser un garrot. L'efficacité de ce dispositif a été évaluée sur un cadavre perfusé et montre qu'il arrête efficacement la circulation dans le membre inférieur sans perturber la circulation aortique. La mise en œuvre a également été évaluée sur des personnes saines, sur la base de l'absence de pouls pédieux, et le dispositif est jugé plus simple et plus rapide à mettre en œuvre qu'un garrot tactique standard.
 </t>
         </is>
       </c>
